--- a/Feature Analysis.xlsx
+++ b/Feature Analysis.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="space" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="space" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="270">
   <si>
     <t>int64</t>
   </si>
@@ -824,13 +825,28 @@
   </si>
   <si>
     <t>['MSSubClass','MSZoning','LotFrontage','LotArea','Street','Alley','LotShape','LandContour','Utilities','LotConfig','LandSlope','Neighborhood','Condition1','Condition2','BldgType','HouseStyle','OverallQual','OverallCond','YearBuilt','YearRemodAdd','RoofStyle','RoofMatl','Exterior1st','Exterior2nd','MasVnrType','MasVnrArea','ExterQual','ExterCond','Foundation','BsmtQual','BsmtCond','BsmtExposure','BsmtFinType1','BsmtFinSF1','BsmtFinType2','BsmtFinSF2','BsmtUnfSF','TotalBsmtSF','Heating','HeatingQC','CentralAir','Electrical','1stFlrSF','2ndFlrSF','LowQualFinSF','GrLivArea','BsmtFullBath','BsmtHalfBath','FullBath','HalfBath','BedroomAbvGr','KitchenAbvGr','KitchenQual','TotRmsAbvGrd','Functional','Fireplaces','FireplaceQu','GarageType','GarageYrBlt','GarageFinish','GarageCars','GarageArea','GarageQual','GarageCond','PavedDrive','WoodDeckSF','OpenPorchSF','EnclosedPorch','3SsnPorch','ScreenPorch','PoolArea','PoolQC','Fence','MiscFeature','MiscVal','MoSold','YrSold','SaleType','SaleCondition',]</t>
+  </si>
+  <si>
+    <t>Action (Keep/Drop)</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Drop - # Nulls</t>
+  </si>
+  <si>
+    <t>['Utilities',</t>
+  </si>
+  <si>
+    <t>['Utilities','Functional','Exterior1st','Exterior2nd','KitchenQual','SaleType','MSSubClass','Street','LotShape','LandContour','LotConfig','LandSlope','Neighborhood','Condition1','Condition2','BldgType','HouseStyle','OverallQual','OverallCond','YearBuilt','YearRemodAdd','RoofStyle','RoofMatl','ExterQual','ExterCond','Foundation','Heating','HeatingQC','CentralAir','Electrical','PavedDrive','MiscVal','MoSold','YrSold','SaleCondition']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +882,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -888,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -903,6 +926,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,13 +1212,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6:J19"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,12 +1230,12 @@
     <col min="7" max="7" width="26.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="23.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="41.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="11" width="19.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="41.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>182</v>
       </c>
@@ -1216,7 +1243,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
@@ -1248,29 +1275,32 @@
         <v>178</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
-        <v>1459</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D66" si="0">$B$1-C3</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D34" si="0">$B$1-C3</f>
+        <v>1456</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E66" si="1">D3/$B$1</f>
-        <v>0</v>
+        <f t="shared" ref="E3:E34" si="1">D3/$B$1</f>
+        <v>0.99794379712131598</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>171</v>
@@ -1279,29 +1309,35 @@
         <v>177</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1455</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1408</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>2.7416038382453737E-3</v>
+        <v>0.96504455106237153</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>171</v>
@@ -1310,91 +1346,109 @@
         <v>177</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>1232</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>1352</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>0.15558601782042494</v>
+        <v>0.92666209732693627</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
+      <c r="K5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1459</v>
+        <v>290</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.80123372172721041</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>1459</v>
+        <v>729</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.50034270047978069</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>171</v>
@@ -1405,58 +1459,70 @@
       <c r="I7" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
+      <c r="K7" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>107</v>
+        <v>1232</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>1352</v>
+        <v>227</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>0.92666209732693627</v>
+        <v>0.15558601782042494</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
-        <v>1459</v>
+        <v>1381</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3461274845784786E-2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>171</v>
@@ -1467,27 +1533,30 @@
       <c r="I9" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>1459</v>
+        <v>1381</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3461274845784786E-2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>171</v>
@@ -1496,29 +1565,32 @@
         <v>177</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>1457</v>
+        <v>1381</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>1.3708019191226869E-3</v>
+        <v>5.3461274845784786E-2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>171</v>
@@ -1529,27 +1601,30 @@
       <c r="I11" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>1459</v>
+        <v>1381</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3461274845784786E-2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>171</v>
@@ -1558,29 +1633,32 @@
         <v>177</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>1459</v>
+        <v>1383</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>5.20904729266621E-2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>171</v>
@@ -1589,63 +1667,66 @@
         <v>177</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4">
-        <v>1459</v>
+        <v>1414</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0843043180260453E-2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>1459</v>
+        <v>1415</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.015764222069911E-2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>171</v>
@@ -1654,29 +1735,32 @@
         <v>177</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>1459</v>
+        <v>1415</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.015764222069911E-2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>171</v>
@@ -1685,29 +1769,32 @@
         <v>177</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="4">
-        <v>1459</v>
+        <v>1417</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8786840301576421E-2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>171</v>
@@ -1716,29 +1803,32 @@
         <v>177</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="4">
-        <v>1459</v>
+        <v>1417</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8786840301576421E-2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>171</v>
@@ -1749,27 +1839,30 @@
       <c r="I18" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="K18" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0966415352981495E-2</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>171</v>
@@ -1778,60 +1871,66 @@
         <v>177</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.028101439342015E-2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7416038382453737E-3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>171</v>
@@ -1842,27 +1941,30 @@
       <c r="I21" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="K21" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>1.3708019191226869E-3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>171</v>
@@ -1871,94 +1973,100 @@
         <v>177</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3708019191226869E-3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3708019191226869E-3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="4">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <v>1.3708019191226869E-3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>171</v>
@@ -1967,12 +2075,15 @@
         <v>177</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -1989,7 +2100,7 @@
         <v>6.8540095956134343E-4</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>171</v>
@@ -2000,27 +2111,30 @@
       <c r="I26" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="K26" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="4">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>1.0966415352981495E-2</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>171</v>
@@ -2031,27 +2145,30 @@
       <c r="I27" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="4">
-        <v>1444</v>
+        <v>1458</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>1.028101439342015E-2</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>172</v>
@@ -2062,120 +2179,132 @@
       <c r="I28" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="4">
-        <v>1415</v>
+        <v>1458</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>3.015764222069911E-2</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>171</v>
@@ -2186,30 +2315,33 @@
       <c r="I32" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4">
-        <v>1414</v>
+        <v>1458</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>3.0843043180260453E-2</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>177</v>
@@ -2217,58 +2349,64 @@
       <c r="I33" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4">
-        <v>1415</v>
+        <v>1458</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="1"/>
-        <v>3.015764222069911E-2</v>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="4">
-        <v>1417</v>
+        <v>1458</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" ref="D35:D66" si="2">$B$1-C35</f>
+        <v>1</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8786840301576421E-2</v>
+        <f t="shared" ref="E35:E66" si="3">D35/$B$1</f>
+        <v>6.8540095956134343E-4</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>171</v>
@@ -2277,167 +2415,185 @@
         <v>177</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1459</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="I37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="4">
-        <v>1417</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8786840301576421E-2</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="C38" s="4">
+        <v>1459</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1458</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>3</v>
@@ -2446,15 +2602,15 @@
         <v>1459</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>171</v>
@@ -2463,12 +2619,15 @@
         <v>177</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>3</v>
@@ -2477,15 +2636,15 @@
         <v>1459</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>171</v>
@@ -2494,12 +2653,18 @@
         <v>177</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
@@ -2508,29 +2673,32 @@
         <v>1459</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
@@ -2539,15 +2707,15 @@
         <v>1459</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>171</v>
@@ -2556,105 +2724,117 @@
         <v>177</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="4">
         <v>1459</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46" s="4">
         <v>1459</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47" s="4">
         <v>1459</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>0</v>
@@ -2663,49 +2843,52 @@
         <v>1459</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C49" s="4">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3708019191226869E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>177</v>
@@ -2713,41 +2896,47 @@
       <c r="I49" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C50" s="4">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3708019191226869E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>0</v>
@@ -2756,18 +2945,18 @@
         <v>1459</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>174</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>177</v>
@@ -2775,92 +2964,104 @@
       <c r="I51" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" s="4">
         <v>1459</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53" s="4">
         <v>1459</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4">
         <v>1459</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>177</v>
@@ -2868,27 +3069,30 @@
       <c r="I54" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>171</v>
@@ -2897,60 +3101,66 @@
         <v>177</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4">
         <v>1459</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="4">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3708019191226869E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>171</v>
@@ -2959,60 +3169,66 @@
         <v>177</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58" s="4">
         <v>1459</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="4">
-        <v>729</v>
+        <v>1459</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="0"/>
-        <v>730</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="1"/>
-        <v>0.50034270047978069</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>171</v>
@@ -3021,29 +3237,32 @@
         <v>177</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="4">
-        <v>1383</v>
+        <v>1459</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="1"/>
-        <v>5.20904729266621E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>171</v>
@@ -3052,122 +3271,134 @@
         <v>177</v>
       </c>
       <c r="I60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1459</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1381</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="1"/>
-        <v>5.3461274845784786E-2</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" s="4">
-        <v>1381</v>
+        <v>1459</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="1"/>
-        <v>5.3461274845784786E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>172</v>
@@ -3178,103 +3409,115 @@
       <c r="I64" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" s="4">
-        <v>1381</v>
+        <v>1459</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="1"/>
-        <v>5.3461274845784786E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66" s="4">
-        <v>1381</v>
+        <v>1459</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="1"/>
-        <v>5.3461274845784786E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" s="4">
         <v>1459</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D81" si="2">$B$1-C67</f>
+        <f t="shared" ref="D67:D98" si="4">$B$1-C67</f>
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E81" si="3">D67/$B$1</f>
+        <f t="shared" ref="E67:E98" si="5">D67/$B$1</f>
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>0</v>
@@ -3283,29 +3526,32 @@
         <v>1459</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>0</v>
@@ -3314,29 +3560,32 @@
         <v>1459</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>0</v>
@@ -3345,60 +3594,66 @@
         <v>1459</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" s="4">
         <v>1459</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>0</v>
@@ -3407,15 +3662,15 @@
         <v>1459</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>172</v>
@@ -3426,10 +3681,13 @@
       <c r="I72" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>0</v>
@@ -3438,15 +3696,15 @@
         <v>1459</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>172</v>
@@ -3457,103 +3715,115 @@
       <c r="I73" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" s="4">
-        <v>3</v>
+        <v>1459</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="2"/>
-        <v>1456</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99794379712131598</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K74" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75" s="4">
-        <v>290</v>
+        <v>1459</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="2"/>
-        <v>1169</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="3"/>
-        <v>0.80123372172721041</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76" s="4">
-        <v>51</v>
+        <v>1459</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="2"/>
-        <v>1408</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="3"/>
-        <v>0.96504455106237153</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>0</v>
@@ -3562,29 +3832,32 @@
         <v>1459</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>0</v>
@@ -3593,15 +3866,15 @@
         <v>1459</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>171</v>
@@ -3612,10 +3885,13 @@
       <c r="I78" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>0</v>
@@ -3624,15 +3900,15 @@
         <v>1459</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>171</v>
@@ -3641,29 +3917,32 @@
         <v>177</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="3"/>
-        <v>6.8540095956134343E-4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>171</v>
@@ -3672,10 +3951,13 @@
         <v>177</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>81</v>
       </c>
@@ -3686,11 +3968,11 @@
         <v>1459</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F81" s="4" t="s">
@@ -3705,9 +3987,21 @@
       <c r="I81" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="K81" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K81"/>
+  <autoFilter ref="A2:L81">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Categorical"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:L81">
+      <sortCondition descending="1" ref="E2:E81"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3715,10 +4009,700 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"'"&amp;A1&amp;"',"</f>
+        <v>'Utilities',</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"["&amp;C1</f>
+        <v>['Utilities',</v>
+      </c>
+      <c r="E1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("['Utilities',","'Functional',","'Exterior1st',","'Exterior2nd',","'KitchenQual',","'SaleType',","'MSSubClass',","'Street',","'LotShape',","'LandContour',","'LotConfig',","'LandSlope',","'Neighborhood',","'Condition1',","'Condition2',","'BldgType',","'HouseStyle',","'OverallQual',","'OverallCond',","'YearBuilt',","'YearRemodAdd',","'RoofStyle',","'RoofMatl',","'ExterQual',","'ExterCond',","'Foundation',","'Heating',","'HeatingQC',","'CentralAir',","'Electrical',","'PavedDrive',","'MiscVal',","'MoSold',","'YrSold',","'SaleCondition',")</f>
+        <v>['Utilities','Functional','Exterior1st','Exterior2nd','KitchenQual','SaleType','MSSubClass','Street','LotShape','LandContour','LotConfig','LandSlope','Neighborhood','Condition1','Condition2','BldgType','HouseStyle','OverallQual','OverallCond','YearBuilt','YearRemodAdd','RoofStyle','RoofMatl','ExterQual','ExterCond','Foundation','Heating','HeatingQC','CentralAir','Electrical','PavedDrive','MiscVal','MoSold','YrSold','SaleCondition',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">"'"&amp;A2&amp;"',"</f>
+        <v>'Functional',</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>'Functional',</v>
+      </c>
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'Exterior1st',</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">C3</f>
+        <v>'Exterior1st',</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Exterior2nd',</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>'Exterior2nd',</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'KitchenQual',</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>'KitchenQual',</v>
+      </c>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'SaleType',</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>'SaleType',</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'MSSubClass',</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>'MSSubClass',</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Street',</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>'Street',</v>
+      </c>
+      <c r="E8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'LotShape',</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>'LotShape',</v>
+      </c>
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'LandContour',</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>'LandContour',</v>
+      </c>
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'LotConfig',</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>'LotConfig',</v>
+      </c>
+      <c r="E11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'LandSlope',</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>'LandSlope',</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Neighborhood',</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>'Neighborhood',</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Condition1',</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>'Condition1',</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Condition2',</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>'Condition2',</v>
+      </c>
+      <c r="E15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'BldgType',</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>'BldgType',</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'HouseStyle',</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>'HouseStyle',</v>
+      </c>
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'OverallQual',</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>'OverallQual',</v>
+      </c>
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'OverallCond',</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>'OverallCond',</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'YearBuilt',</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>'YearBuilt',</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'YearRemodAdd',</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>'YearRemodAdd',</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'RoofStyle',</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>'RoofStyle',</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'RoofMatl',</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>'RoofMatl',</v>
+      </c>
+      <c r="E23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'ExterQual',</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>'ExterQual',</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'ExterCond',</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>'ExterCond',</v>
+      </c>
+      <c r="E25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Foundation',</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>'Foundation',</v>
+      </c>
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Heating',</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>'Heating',</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'HeatingQC',</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>'HeatingQC',</v>
+      </c>
+      <c r="E28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'CentralAir',</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>'CentralAir',</v>
+      </c>
+      <c r="E29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Electrical',</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>'Electrical',</v>
+      </c>
+      <c r="E30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'PavedDrive',</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>'PavedDrive',</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'MiscVal',</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>'MiscVal',</v>
+      </c>
+      <c r="E32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'MoSold',</v>
+      </c>
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>'MoSold',</v>
+      </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'YrSold',</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>'YrSold',</v>
+      </c>
+      <c r="E34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'SaleCondition',</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>'SaleCondition',</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5244,7 +6228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>

--- a/Feature Analysis.xlsx
+++ b/Feature Analysis.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="space" sheetId="3" r:id="rId4"/>
+    <sheet name="cols to drop" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$81</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="276">
   <si>
     <t>int64</t>
   </si>
@@ -840,6 +841,24 @@
   </si>
   <si>
     <t>['Utilities','Functional','Exterior1st','Exterior2nd','KitchenQual','SaleType','MSSubClass','Street','LotShape','LandContour','LotConfig','LandSlope','Neighborhood','Condition1','Condition2','BldgType','HouseStyle','OverallQual','OverallCond','YearBuilt','YearRemodAdd','RoofStyle','RoofMatl','ExterQual','ExterCond','Foundation','Heating','HeatingQC','CentralAir','Electrical','PavedDrive','MiscVal','MoSold','YrSold','SaleCondition']</t>
+  </si>
+  <si>
+    <t>Drop - covered by GarageCars</t>
+  </si>
+  <si>
+    <t>Drop - covered by BasemntSF</t>
+  </si>
+  <si>
+    <t>['GarageType',</t>
+  </si>
+  <si>
+    <t>['GarageType','GarageYrBlt','GarageFinish','GarageArea','GarageQual','GarageCond','BsmtQual','BsmtCond','BsmtExposure','BsmtFinType1','BsmtFinSF1','BsmtFinType2','BsmtFinSF2','BsmtUnfSF',</t>
+  </si>
+  <si>
+    <t>['LotFrontage',</t>
+  </si>
+  <si>
+    <t>['LotFrontage','LotArea','MasVnrArea','BsmtFinSF1','BsmtFinSF2','BsmtUnfSF','TotalBsmtSF','1stFlrSF','2ndFlrSF','LowQualFinSF','GrLivArea','GarageArea','WoodDeckSF','OpenPorchSF','EnclosedPorch','3SsnPorch','ScreenPorch','PoolArea']</t>
   </si>
 </sst>
 </file>
@@ -1212,14 +1231,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:A81"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1484,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1522,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1536,9 +1554,12 @@
       <c r="K9" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L9" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1570,9 +1591,12 @@
       <c r="K10" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L10" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1604,9 +1628,12 @@
       <c r="K11" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L11" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1638,9 +1665,12 @@
       <c r="K12" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L12" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1672,9 +1702,12 @@
       <c r="K13" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L13" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1706,9 +1739,12 @@
       <c r="K14" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L14" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1740,9 +1776,12 @@
       <c r="K15" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="L15" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1774,9 +1813,12 @@
       <c r="K16" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="L16" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1808,9 +1850,12 @@
       <c r="K17" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="L17" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1842,8 +1887,11 @@
       <c r="K18" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1925,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1959,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1945,7 +1993,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +2027,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
@@ -2013,7 +2061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -2047,7 +2095,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
@@ -2081,7 +2129,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
@@ -2115,7 +2163,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -2149,7 +2197,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -2183,7 +2231,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -2217,7 +2265,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
@@ -2251,7 +2299,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2333,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>55</v>
       </c>
@@ -2319,7 +2367,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -2353,7 +2401,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -2455,7 +2503,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3325,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>45</v>
       </c>
@@ -3311,7 +3359,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>46</v>
       </c>
@@ -3345,7 +3393,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>47</v>
       </c>
@@ -3379,7 +3427,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>48</v>
       </c>
@@ -3413,7 +3461,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -3447,7 +3495,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -3481,7 +3529,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>53</v>
       </c>
@@ -3492,11 +3540,11 @@
         <v>1459</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D98" si="4">$B$1-C67</f>
+        <f t="shared" ref="D67:D81" si="4">$B$1-C67</f>
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E98" si="5">D67/$B$1</f>
+        <f t="shared" ref="E67:E81" si="5">D67/$B$1</f>
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -3515,7 +3563,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
@@ -3549,7 +3597,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>56</v>
       </c>
@@ -3583,7 +3631,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>58</v>
       </c>
@@ -3651,7 +3699,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>68</v>
       </c>
@@ -3685,7 +3733,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>69</v>
       </c>
@@ -3719,7 +3767,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>70</v>
       </c>
@@ -3753,7 +3801,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -3787,7 +3835,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>72</v>
       </c>
@@ -3821,7 +3869,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
@@ -3993,11 +4041,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L81">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Categorical"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A3:L81">
       <sortCondition descending="1" ref="E2:E81"/>
     </sortState>
@@ -4011,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4048,7 +4091,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">"'"&amp;A2&amp;"',"</f>
+        <f t="shared" ref="B2:B35" si="0">"'"&amp;A2&amp;"',"</f>
         <v>'Functional',</v>
       </c>
       <c r="C2" t="s">
@@ -4074,7 +4117,7 @@
         <v>195</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="1">C3</f>
+        <f t="shared" ref="D3:D35" si="1">C3</f>
         <v>'Exterior1st',</v>
       </c>
       <c r="E3" t="s">
@@ -4702,7 +4745,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B1" sqref="B1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,10 +6273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6241,166 +6284,720 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>"'"&amp;B1&amp;"',"</f>
+        <v>'LotFrontage',</v>
+      </c>
+      <c r="D1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"["&amp;D1</f>
+        <v>['LotFrontage',</v>
+      </c>
+      <c r="F1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("['LotFrontage',","'LotArea',","'MasVnrArea',","'BsmtFinSF1',","'BsmtFinSF2',","'BsmtUnfSF',","'TotalBsmtSF',","'1stFlrSF',","'2ndFlrSF',","'LowQualFinSF',","'GrLivArea',","'GarageArea',","'WoodDeckSF',","'OpenPorchSF',","'EnclosedPorch',","'3SsnPorch',","'ScreenPorch',","'PoolArea']")</f>
+        <v>['LotFrontage','LotArea','MasVnrArea','BsmtFinSF1','BsmtFinSF2','BsmtUnfSF','TotalBsmtSF','1stFlrSF','2ndFlrSF','LowQualFinSF','GrLivArea','GarageArea','WoodDeckSF','OpenPorchSF','EnclosedPorch','3SsnPorch','ScreenPorch','PoolArea']</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C35" si="0">"'"&amp;B2&amp;"',"</f>
+        <v>'LotArea',</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="str">
+        <f>D2</f>
+        <v>'LotArea',</v>
+      </c>
+      <c r="F2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>'MasVnrArea',</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E35" si="1">D3</f>
+        <v>'MasVnrArea',</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtFinSF1',</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtFinSF1',</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtFinSF2',</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtFinSF2',</v>
+      </c>
+      <c r="F5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtUnfSF',</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtUnfSF',</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>'TotalBsmtSF',</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>'TotalBsmtSF',</v>
+      </c>
+      <c r="F7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>'1stFlrSF',</v>
+      </c>
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>'1stFlrSF',</v>
+      </c>
+      <c r="F8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>'2ndFlrSF',</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>'2ndFlrSF',</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>'LowQualFinSF',</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>'LowQualFinSF',</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>'GrLivArea',</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>'GrLivArea',</v>
+      </c>
+      <c r="F11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>'GarageArea',</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>'GarageArea',</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>'WoodDeckSF',</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>'WoodDeckSF',</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>'OpenPorchSF',</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>'OpenPorchSF',</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>'EnclosedPorch',</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>'EnclosedPorch',</v>
+      </c>
+      <c r="F15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>'3SsnPorch',</v>
+      </c>
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>'3SsnPorch',</v>
+      </c>
+      <c r="F16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>'ScreenPorch',</v>
+      </c>
+      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>'ScreenPorch',</v>
+      </c>
+      <c r="F17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>'PoolArea',</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>'PoolArea',</v>
+      </c>
+      <c r="F18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"'"&amp;A1&amp;"',"</f>
+        <v>'GarageType',</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"["&amp;C1</f>
+        <v>['GarageType',</v>
+      </c>
+      <c r="E1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" t="str">
+        <f>CONCATENATE("['GarageType',","'GarageYrBlt',","'GarageFinish',","'GarageArea',","'GarageQual',","'GarageCond',","'BsmtQual',","'BsmtCond',","'BsmtExposure',","'BsmtFinType1',","'BsmtFinSF1',","'BsmtFinType2',","'BsmtFinSF2',","'BsmtUnfSF',")</f>
+        <v>['GarageType','GarageYrBlt','GarageFinish','GarageArea','GarageQual','GarageCond','BsmtQual','BsmtCond','BsmtExposure','BsmtFinType1','BsmtFinSF1','BsmtFinType2','BsmtFinSF2','BsmtUnfSF',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B14" si="0">"'"&amp;A2&amp;"',"</f>
+        <v>'GarageYrBlt',</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>'GarageYrBlt',</v>
+      </c>
+      <c r="E2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'GarageFinish',</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D14" si="1">C3</f>
+        <v>'GarageFinish',</v>
+      </c>
+      <c r="E3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'GarageArea',</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>'GarageArea',</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'GarageQual',</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>'GarageQual',</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'GarageCond',</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>'GarageCond',</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtQual',</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtQual',</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtCond',</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtCond',</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtExposure',</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtExposure',</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtFinType1',</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtFinType1',</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtFinSF1',</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtFinSF1',</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtFinType2',</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtFinType2',</v>
+      </c>
+      <c r="E12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtFinSF2',</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtFinSF2',</v>
+      </c>
+      <c r="E13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'BsmtUnfSF',</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>'BsmtUnfSF',</v>
+      </c>
+      <c r="E14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>